--- a/src/com/qtpselenium/xls/A suite.xlsx
+++ b/src/com/qtpselenium/xls/A suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="18945" windowHeight="4365" tabRatio="733" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="18945" windowHeight="4365" tabRatio="733" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="131">
   <si>
     <t>TCID</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Add alerts to patient</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
@@ -788,7 +791,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +946,7 @@
     <col min="1" max="1" customWidth="true" width="20.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="18.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="11.85546875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
@@ -1039,7 +1042,7 @@
     <col min="1" max="1" customWidth="true" width="18.5703125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1115,7 +1118,7 @@
   <cols>
     <col min="1" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="4" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -1435,7 +1438,7 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1541,7 +1544,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
     <col min="3" max="9" customWidth="true" width="17.85546875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1648,7 +1651,7 @@
     <col min="9" max="10" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1753,8 +1756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,13 +1845,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
